--- a/Lab2/Task-2/Data1.xlsx
+++ b/Lab2/Task-2/Data1.xlsx
@@ -359,707 +359,707 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="n">
-        <v>24.7946528634944</v>
+        <v>9.020586599984323</v>
       </c>
       <c r="B1" t="n">
-        <v>3.248144691165312</v>
+        <v>24.67363666426199</v>
       </c>
       <c r="C1" t="n">
-        <v>13.7078800299109</v>
+        <v>10.72679972907323</v>
       </c>
       <c r="D1" t="n">
-        <v>9.935788576476762</v>
+        <v>15.01983100855659</v>
       </c>
       <c r="E1" t="n">
-        <v>27.8479240978704</v>
+        <v>5.363862443116282</v>
       </c>
       <c r="F1" t="n">
-        <v>24.53230547795314</v>
+        <v>15.55886854536925</v>
       </c>
       <c r="G1" t="n">
-        <v>27.02096045329762</v>
+        <v>6.775522177955993</v>
       </c>
       <c r="H1" t="n">
-        <v>12.02531752689225</v>
+        <v>15.23875041602943</v>
       </c>
       <c r="I1" t="n">
-        <v>29.32877989155939</v>
+        <v>3.848465881330531</v>
       </c>
       <c r="J1" t="n">
-        <v>14.61068380577269</v>
+        <v>9.698976488619106</v>
       </c>
       <c r="K1" t="n">
-        <v>14.6527152819332</v>
+        <v>10.1963451399622</v>
       </c>
       <c r="L1" t="n">
-        <v>18.75668190438988</v>
+        <v>26.8315523206924</v>
       </c>
       <c r="M1" t="n">
-        <v>29.96099714089225</v>
+        <v>12.1492242452136</v>
       </c>
       <c r="N1" t="n">
-        <v>19.30111657058496</v>
+        <v>8.712604807791573</v>
       </c>
       <c r="O1" t="n">
-        <v>18.40362642701553</v>
+        <v>7.617748177156455</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="n">
-        <v>2.509541442208819</v>
+        <v>6.65664162045891</v>
       </c>
       <c r="B2" t="n">
-        <v>12.63071352699096</v>
+        <v>26.46134906601895</v>
       </c>
       <c r="C2" t="n">
-        <v>11.41270275311294</v>
+        <v>10.36247134376251</v>
       </c>
       <c r="D2" t="n">
-        <v>16.82404074453874</v>
+        <v>13.720335414595</v>
       </c>
       <c r="E2" t="n">
-        <v>8.00840922794416</v>
+        <v>13.56880684472409</v>
       </c>
       <c r="F2" t="n">
-        <v>29.7830263374902</v>
+        <v>27.93170824760149</v>
       </c>
       <c r="G2" t="n">
-        <v>15.71901597953874</v>
+        <v>6.777624991253685</v>
       </c>
       <c r="H2" t="n">
-        <v>18.45952225545371</v>
+        <v>4.374621048645491</v>
       </c>
       <c r="I2" t="n">
-        <v>26.36839402223769</v>
+        <v>4.374621048645491</v>
       </c>
       <c r="J2" t="n">
-        <v>16.78746357595449</v>
+        <v>14.83870739332397</v>
       </c>
       <c r="K2" t="n">
-        <v>3.034090220150406</v>
+        <v>10.47634216671462</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.088321850007949</v>
       </c>
       <c r="M2" t="n">
-        <v>2.628325546690623</v>
+        <v>3.405432908434642</v>
       </c>
       <c r="N2" t="n">
-        <v>18.73001846446742</v>
+        <v>13.6890454762168</v>
       </c>
       <c r="O2" t="n">
-        <v>9.081226061901855</v>
+        <v>11.32278651377574</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="n">
-        <v>21.2480204555783</v>
+        <v>19.36468565236299</v>
       </c>
       <c r="B3" t="n">
-        <v>16.27244884621784</v>
+        <v>2.67685778436678</v>
       </c>
       <c r="C3" t="n">
-        <v>8.833159520166415</v>
+        <v>27.77094357738926</v>
       </c>
       <c r="D3" t="n">
-        <v>16.57892302673346</v>
+        <v>10.02187325172362</v>
       </c>
       <c r="E3" t="n">
-        <v>28.79714465530016</v>
+        <v>20.9879402421614</v>
       </c>
       <c r="F3" t="n">
-        <v>28.78089224217038</v>
+        <v>26.98507316143293</v>
       </c>
       <c r="G3" t="n">
-        <v>15.18750074069027</v>
+        <v>1.219657148093041</v>
       </c>
       <c r="H3" t="n">
-        <v>22.21905405903399</v>
+        <v>27.61381135219987</v>
       </c>
       <c r="I3" t="n">
-        <v>7.68918664260845</v>
+        <v>18.63592430642453</v>
       </c>
       <c r="J3" t="n">
-        <v>24.52740144179136</v>
+        <v>23.00091471856156</v>
       </c>
       <c r="K3" t="n">
-        <v>21.84754637038724</v>
+        <v>7.173679626033062</v>
       </c>
       <c r="L3" t="n">
-        <v>2.785298880367863</v>
+        <v>14.0096700652081</v>
       </c>
       <c r="M3" t="n">
-        <v>21.71443719710352</v>
+        <v>11.40699549279769</v>
       </c>
       <c r="N3" t="n">
-        <v>10.41488134249589</v>
+        <v>20.47118459153531</v>
       </c>
       <c r="O3" t="n">
-        <v>3.032764356198809</v>
+        <v>11.55551187777098</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="n">
-        <v>18.03281575672091</v>
+        <v>22.68498886286671</v>
       </c>
       <c r="B4" t="n">
-        <v>14.68818195220479</v>
+        <v>9.84480156645207</v>
       </c>
       <c r="C4" t="n">
-        <v>17.1941664785329</v>
+        <v>7.75567292966933</v>
       </c>
       <c r="D4" t="n">
-        <v>25.12676034175087</v>
+        <v>25.57184698124054</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6619787454535</v>
+        <v>3.619691902740333</v>
       </c>
       <c r="F4" t="n">
-        <v>28.05479843483592</v>
+        <v>8.770812804112415</v>
       </c>
       <c r="G4" t="n">
-        <v>22.21001492966247</v>
+        <v>18.76423327876132</v>
       </c>
       <c r="H4" t="n">
-        <v>27.03590632124184</v>
+        <v>26.8533117801381</v>
       </c>
       <c r="I4" t="n">
-        <v>23.36167321518934</v>
+        <v>27.11544287115327</v>
       </c>
       <c r="J4" t="n">
-        <v>25.64119108696871</v>
+        <v>20.695752261988</v>
       </c>
       <c r="K4" t="n">
-        <v>5.573323767761957</v>
+        <v>12.41609532982015</v>
       </c>
       <c r="L4" t="n">
-        <v>29.42020032706612</v>
+        <v>12.41609532982015</v>
       </c>
       <c r="M4" t="n">
-        <v>25.51645621130439</v>
+        <v>19.79009900217976</v>
       </c>
       <c r="N4" t="n">
-        <v>20.53175546898353</v>
+        <v>12.08944564547694</v>
       </c>
       <c r="O4" t="n">
-        <v>13.38276063130883</v>
+        <v>10.65307612424885</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="n">
-        <v>23.68449928465155</v>
+        <v>9.035511301689411</v>
       </c>
       <c r="B5" t="n">
-        <v>19.65339699906968</v>
+        <v>9.035511301689411</v>
       </c>
       <c r="C5" t="n">
-        <v>29.98244055995705</v>
+        <v>4.642220944286654</v>
       </c>
       <c r="D5" t="n">
-        <v>19.80415945098396</v>
+        <v>4.642220944286654</v>
       </c>
       <c r="E5" t="n">
-        <v>25.96904606661506</v>
+        <v>13.21727771870139</v>
       </c>
       <c r="F5" t="n">
-        <v>25.29744737180257</v>
+        <v>24.20714636782846</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>27.66177531389596</v>
       </c>
       <c r="H5" t="n">
-        <v>18.18184746645122</v>
+        <v>24.49486028515228</v>
       </c>
       <c r="I5" t="n">
-        <v>12.90316976343968</v>
+        <v>22.9469062548071</v>
       </c>
       <c r="J5" t="n">
-        <v>22.85721550507109</v>
+        <v>7.242197118844668</v>
       </c>
       <c r="K5" t="n">
-        <v>1.97228694590502</v>
+        <v>4.942554006271341</v>
       </c>
       <c r="L5" t="n">
-        <v>6.430896391348744</v>
+        <v>4.942554006271341</v>
       </c>
       <c r="M5" t="n">
-        <v>29.96850804969948</v>
+        <v>5.360146629905638</v>
       </c>
       <c r="N5" t="n">
-        <v>3.955881300424565</v>
+        <v>25.29591658572435</v>
       </c>
       <c r="O5" t="n">
-        <v>7.480747138141977</v>
+        <v>15.90967438773843</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="n">
-        <v>1.286118159255956</v>
+        <v>7.763831849937518</v>
       </c>
       <c r="B6" t="n">
-        <v>3.004693573318205</v>
+        <v>17.56779647748941</v>
       </c>
       <c r="C6" t="n">
-        <v>27.78345168264116</v>
+        <v>17.56779647748941</v>
       </c>
       <c r="D6" t="n">
-        <v>7.72971079729303</v>
+        <v>13.99473355653367</v>
       </c>
       <c r="E6" t="n">
-        <v>13.71476593508385</v>
+        <v>8.775473471634051</v>
       </c>
       <c r="F6" t="n">
-        <v>28.45434906169351</v>
+        <v>13.89838365474218</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.9087375309873</v>
       </c>
       <c r="H6" t="n">
-        <v>2.555653610493665</v>
+        <v>13.11921595894084</v>
       </c>
       <c r="I6" t="n">
-        <v>29.88851857186377</v>
+        <v>23.37258051501598</v>
       </c>
       <c r="J6" t="n">
-        <v>2.450417578396129</v>
+        <v>3.640464006761429</v>
       </c>
       <c r="K6" t="n">
-        <v>1.983603967757335</v>
+        <v>8.853277735686179</v>
       </c>
       <c r="L6" t="n">
-        <v>24.96135488449603</v>
+        <v>20.56559500755781</v>
       </c>
       <c r="M6" t="n">
-        <v>23.37844882245143</v>
+        <v>15.3478589857668</v>
       </c>
       <c r="N6" t="n">
-        <v>4.33135015508008</v>
+        <v>22.95104756365309</v>
       </c>
       <c r="O6" t="n">
-        <v>29.91006032951578</v>
+        <v>20.9414362031996</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="n">
-        <v>27.45746176809974</v>
+        <v>27.23910782517492</v>
       </c>
       <c r="B7" t="n">
-        <v>17.4049528544607</v>
+        <v>22.953313223212</v>
       </c>
       <c r="C7" t="n">
-        <v>20.05097612253189</v>
+        <v>7.33513798986549</v>
       </c>
       <c r="D7" t="n">
-        <v>9.289385621712439</v>
+        <v>25.90703012061408</v>
       </c>
       <c r="E7" t="n">
-        <v>26.24667216154828</v>
+        <v>27.60899868009487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03841873458189864</v>
+        <v>19.95831306889844</v>
       </c>
       <c r="G7" t="n">
-        <v>24.38079797460357</v>
+        <v>6.850920128876277</v>
       </c>
       <c r="H7" t="n">
-        <v>12.01221203087442</v>
+        <v>5.8312788998101</v>
       </c>
       <c r="I7" t="n">
-        <v>12.00519382496971</v>
+        <v>2.32234814199044</v>
       </c>
       <c r="J7" t="n">
-        <v>16.37558076683653</v>
+        <v>16.52020792562613</v>
       </c>
       <c r="K7" t="n">
-        <v>18.19762400600107</v>
+        <v>6.733267294665362</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06621258803745053</v>
+        <v>12.68573470767679</v>
       </c>
       <c r="M7" t="n">
-        <v>5.288484843185434</v>
+        <v>23.38219107985329</v>
       </c>
       <c r="N7" t="n">
-        <v>5.170954958295201</v>
+        <v>18.67833087102709</v>
       </c>
       <c r="O7" t="n">
-        <v>23.84745997722267</v>
+        <v>21.07392016333632</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="n">
-        <v>10.25563428240599</v>
+        <v>17.00461853819624</v>
       </c>
       <c r="B8" t="n">
-        <v>18.51023421240644</v>
+        <v>25.79513173688258</v>
       </c>
       <c r="C8" t="n">
-        <v>26.23185679076818</v>
+        <v>8.689696172901009</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83998668612575</v>
+        <v>29.18581842389854</v>
       </c>
       <c r="E8" t="n">
-        <v>28.43429639904187</v>
+        <v>1.023208687771568</v>
       </c>
       <c r="F8" t="n">
-        <v>29.76632548591021</v>
+        <v>22.51138243461249</v>
       </c>
       <c r="G8" t="n">
-        <v>29.33790170828905</v>
+        <v>18.83166186437721</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>24.89218327056318</v>
       </c>
       <c r="I8" t="n">
-        <v>17.95281162142372</v>
+        <v>28.42345766063548</v>
       </c>
       <c r="J8" t="n">
-        <v>25.02386615731163</v>
+        <v>1.870231295868793</v>
       </c>
       <c r="K8" t="n">
-        <v>15.39686061646533</v>
+        <v>16.73684225641082</v>
       </c>
       <c r="L8" t="n">
-        <v>23.67179230804441</v>
+        <v>18.71471164207669</v>
       </c>
       <c r="M8" t="n">
-        <v>24.09533485026227</v>
+        <v>18.71471164207669</v>
       </c>
       <c r="N8" t="n">
-        <v>18.93617276713526</v>
+        <v>12.154105615584</v>
       </c>
       <c r="O8" t="n">
-        <v>21.70232041173497</v>
+        <v>13.93969278542829</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="n">
-        <v>5.31924630175321</v>
+        <v>15.06632607218783</v>
       </c>
       <c r="B9" t="n">
-        <v>20.54656735760283</v>
+        <v>20.50219241933116</v>
       </c>
       <c r="C9" t="n">
-        <v>9.493425585976345</v>
+        <v>27.08730749569193</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0152327408451</v>
+        <v>27.17334500597135</v>
       </c>
       <c r="E9" t="n">
-        <v>25.15314652117408</v>
+        <v>11.17127773440506</v>
       </c>
       <c r="F9" t="n">
-        <v>5.414906940443113</v>
+        <v>26.55865803871687</v>
       </c>
       <c r="G9" t="n">
-        <v>1.481678215332726</v>
+        <v>6.027803756825253</v>
       </c>
       <c r="H9" t="n">
-        <v>27.00328045814994</v>
+        <v>24.60021765020461</v>
       </c>
       <c r="I9" t="n">
-        <v>8.187473803971244</v>
+        <v>16.5798847966854</v>
       </c>
       <c r="J9" t="n">
-        <v>9.271403848683216</v>
+        <v>12.33004800590377</v>
       </c>
       <c r="K9" t="n">
-        <v>20.64431719201692</v>
+        <v>9.021599877183981</v>
       </c>
       <c r="L9" t="n">
-        <v>19.97040152395383</v>
+        <v>1.503178212032449</v>
       </c>
       <c r="M9" t="n">
-        <v>23.48789288356086</v>
+        <v>29.59404721513443</v>
       </c>
       <c r="N9" t="n">
-        <v>22.14427100684678</v>
+        <v>13.12232191046616</v>
       </c>
       <c r="O9" t="n">
-        <v>18.11806073825316</v>
+        <v>21.77207320915707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="n">
-        <v>20.47767711776824</v>
+        <v>22.50651870301571</v>
       </c>
       <c r="B10" t="n">
-        <v>11.29433877431495</v>
+        <v>9.054076096667702</v>
       </c>
       <c r="C10" t="n">
-        <v>6.961669507999528</v>
+        <v>17.79480919293188</v>
       </c>
       <c r="D10" t="n">
-        <v>17.82193997094708</v>
+        <v>5.219185239100367</v>
       </c>
       <c r="E10" t="n">
-        <v>1.429023596649334</v>
+        <v>19.87793269942794</v>
       </c>
       <c r="F10" t="n">
-        <v>18.39143290318489</v>
+        <v>19.54436703917215</v>
       </c>
       <c r="G10" t="n">
-        <v>24.80387278908234</v>
+        <v>5.827975690417865</v>
       </c>
       <c r="H10" t="n">
-        <v>23.91035807733963</v>
+        <v>7.576794605258355</v>
       </c>
       <c r="I10" t="n">
-        <v>10.05955297947029</v>
+        <v>5.161405084976556</v>
       </c>
       <c r="J10" t="n">
-        <v>10.94756526600238</v>
+        <v>5.884250129266718</v>
       </c>
       <c r="K10" t="n">
-        <v>21.47748200145487</v>
+        <v>10.04838488116379</v>
       </c>
       <c r="L10" t="n">
-        <v>5.995787582670524</v>
+        <v>13.71965238131274</v>
       </c>
       <c r="M10" t="n">
-        <v>21.7100279769576</v>
+        <v>13.71965238131274</v>
       </c>
       <c r="N10" t="n">
-        <v>28.26983329418753</v>
+        <v>9.395146774475188</v>
       </c>
       <c r="O10" t="n">
-        <v>17.069357929035</v>
+        <v>18.35088276762268</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="n">
-        <v>3.172388447599495</v>
+        <v>14.77790663554525</v>
       </c>
       <c r="B11" t="n">
-        <v>18.08940567759651</v>
+        <v>15.18508406849698</v>
       </c>
       <c r="C11" t="n">
-        <v>21.5841199826248</v>
+        <v>7.646088667563495</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2904724449334</v>
+        <v>9.074873529146771</v>
       </c>
       <c r="E11" t="n">
-        <v>8.486116475249508</v>
+        <v>18.44302727460981</v>
       </c>
       <c r="F11" t="n">
-        <v>9.537248681783449</v>
+        <v>2.725042060655934</v>
       </c>
       <c r="G11" t="n">
-        <v>20.58320628538483</v>
+        <v>16.75851609283128</v>
       </c>
       <c r="H11" t="n">
-        <v>25.44107417094061</v>
+        <v>14.71429577832866</v>
       </c>
       <c r="I11" t="n">
-        <v>18.12309844827194</v>
+        <v>2.606251532508013</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>21.79207171607265</v>
       </c>
       <c r="K11" t="n">
-        <v>1.690760082448008</v>
+        <v>6.812736040469777</v>
       </c>
       <c r="L11" t="n">
-        <v>13.58700311250557</v>
+        <v>6.812736040469777</v>
       </c>
       <c r="M11" t="n">
-        <v>4.785165161437307</v>
+        <v>8.334001432775583</v>
       </c>
       <c r="N11" t="n">
-        <v>11.36993335773169</v>
+        <v>28.10699257131816</v>
       </c>
       <c r="O11" t="n">
-        <v>2.666828984436907</v>
+        <v>15.67315567957748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="n">
-        <v>25.80930031059214</v>
+        <v>3.602648557520952</v>
       </c>
       <c r="B12" t="n">
-        <v>20.09843249935203</v>
+        <v>1.127995291397784</v>
       </c>
       <c r="C12" t="n">
-        <v>28.11086347302051</v>
+        <v>4.194388733105692</v>
       </c>
       <c r="D12" t="n">
-        <v>18.59695745751193</v>
+        <v>25.16342597355398</v>
       </c>
       <c r="E12" t="n">
-        <v>5.643911853330938</v>
+        <v>26.62883943638965</v>
       </c>
       <c r="F12" t="n">
-        <v>20.58481568828802</v>
+        <v>16.31454813146462</v>
       </c>
       <c r="G12" t="n">
-        <v>3.974375712403626</v>
+        <v>21.77451527609803</v>
       </c>
       <c r="H12" t="n">
-        <v>16.88712563403518</v>
+        <v>10.70658040653859</v>
       </c>
       <c r="I12" t="n">
-        <v>4.539636827041775</v>
+        <v>27.23528548893918</v>
       </c>
       <c r="J12" t="n">
-        <v>9.63182368979311</v>
+        <v>20.28146964982595</v>
       </c>
       <c r="K12" t="n">
-        <v>21.10767948675234</v>
+        <v>27.08988582703597</v>
       </c>
       <c r="L12" t="n">
-        <v>3.353140738565343</v>
+        <v>28.08781533169034</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>19.6709025065967</v>
       </c>
       <c r="N12" t="n">
-        <v>13.15711581544896</v>
+        <v>18.1280946588224</v>
       </c>
       <c r="O12" t="n">
-        <v>25.96715022276903</v>
+        <v>29.29065843955219</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="n">
-        <v>10.49772657105933</v>
+        <v>18.74030233037773</v>
       </c>
       <c r="B13" t="n">
-        <v>9.967179973969214</v>
+        <v>25.05242669187031</v>
       </c>
       <c r="C13" t="n">
-        <v>28.69332288143272</v>
+        <v>4.689495516043783</v>
       </c>
       <c r="D13" t="n">
-        <v>5.314783508878846</v>
+        <v>5.647451961491337</v>
       </c>
       <c r="E13" t="n">
-        <v>14.17940910748064</v>
+        <v>4.556009600308807</v>
       </c>
       <c r="F13" t="n">
-        <v>1.408777369510828</v>
+        <v>4.580853601822001</v>
       </c>
       <c r="G13" t="n">
-        <v>15.99909615953542</v>
+        <v>13.65995247700404</v>
       </c>
       <c r="H13" t="n">
-        <v>27.62864201265068</v>
+        <v>22.2318788167087</v>
       </c>
       <c r="I13" t="n">
-        <v>5.171245143533401</v>
+        <v>21.92133394300387</v>
       </c>
       <c r="J13" t="n">
-        <v>19.06121599806194</v>
+        <v>29.6468141410543</v>
       </c>
       <c r="K13" t="n">
-        <v>13.31648902134752</v>
+        <v>1.862281673418898</v>
       </c>
       <c r="L13" t="n">
-        <v>17.22945480399092</v>
+        <v>7.450948809802339</v>
       </c>
       <c r="M13" t="n">
-        <v>9.075058138982893</v>
+        <v>6.18266254991766</v>
       </c>
       <c r="N13" t="n">
-        <v>10.18609044473689</v>
+        <v>6.18266254991766</v>
       </c>
       <c r="O13" t="n">
-        <v>12.38431534265481</v>
+        <v>20.29969975207337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="n">
-        <v>28.03739500857341</v>
+        <v>5.528112844812471</v>
       </c>
       <c r="B14" t="n">
-        <v>22.41213030491277</v>
+        <v>2.918892749886233</v>
       </c>
       <c r="C14" t="n">
-        <v>16.86076738086968</v>
+        <v>15.35304944013477</v>
       </c>
       <c r="D14" t="n">
-        <v>21.77149452081322</v>
+        <v>15.96787024711226</v>
       </c>
       <c r="E14" t="n">
-        <v>15.31829553225094</v>
+        <v>4.990799186621143</v>
       </c>
       <c r="F14" t="n">
-        <v>22.00462504422368</v>
+        <v>1.976925898324472</v>
       </c>
       <c r="G14" t="n">
-        <v>26.38362489904972</v>
+        <v>29.81875034483644</v>
       </c>
       <c r="H14" t="n">
-        <v>22.42311217697394</v>
+        <v>17.75131314780145</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.360135267890718</v>
       </c>
       <c r="J14" t="n">
-        <v>16.53537753359238</v>
+        <v>21.10514726853357</v>
       </c>
       <c r="K14" t="n">
-        <v>27.81659273529742</v>
+        <v>6.203397730755318</v>
       </c>
       <c r="L14" t="n">
-        <v>28.11811045484201</v>
+        <v>6.407401983505927</v>
       </c>
       <c r="M14" t="n">
-        <v>11.7080509364196</v>
+        <v>3.988945583311863</v>
       </c>
       <c r="N14" t="n">
-        <v>16.48544704239968</v>
+        <v>25.58000586983143</v>
       </c>
       <c r="O14" t="n">
-        <v>19.67772682516548</v>
+        <v>17.74336195098626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="n">
-        <v>7.841854468544405</v>
+        <v>29.54224791091988</v>
       </c>
       <c r="B15" t="n">
-        <v>11.21725929144932</v>
+        <v>9.350808393173704</v>
       </c>
       <c r="C15" t="n">
-        <v>26.36204049163524</v>
+        <v>21.8610039664438</v>
       </c>
       <c r="D15" t="n">
-        <v>9.961553435876249</v>
+        <v>11.49988175082895</v>
       </c>
       <c r="E15" t="n">
-        <v>26.63692729960643</v>
+        <v>25.17638713427582</v>
       </c>
       <c r="F15" t="n">
-        <v>12.0420687605988</v>
+        <v>24.8896393474005</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>17.66448751826199</v>
       </c>
       <c r="H15" t="n">
-        <v>16.69788615555409</v>
+        <v>22.17169911999229</v>
       </c>
       <c r="I15" t="n">
-        <v>11.56344593271117</v>
+        <v>11.44868701914386</v>
       </c>
       <c r="J15" t="n">
-        <v>13.39007504032859</v>
+        <v>11.3171204551866</v>
       </c>
       <c r="K15" t="n">
-        <v>16.2365529994007</v>
+        <v>26.65498224445452</v>
       </c>
       <c r="L15" t="n">
-        <v>2.441106310199119</v>
+        <v>24.67205453325809</v>
       </c>
       <c r="M15" t="n">
-        <v>14.28205091111086</v>
+        <v>9.796212077255566</v>
       </c>
       <c r="N15" t="n">
-        <v>1.786163531239183</v>
+        <v>9.865745869666636</v>
       </c>
       <c r="O15" t="n">
-        <v>4.967589387322916</v>
+        <v>8.019449013036297</v>
       </c>
     </row>
   </sheetData>
